--- a/df_list_20241126.xlsx
+++ b/df_list_20241126.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\윤정은책임\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D87B2DB-9F78-4469-B3BE-17C05D4EACD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21943" windowHeight="9429" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="HLouDORe7EDKQBC9U9u1EIP32Wc+jSEWkNpdeSe50LE="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="268">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -818,73 +827,112 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
         <rFont val="&quot;맑은 고딕&quot;, monospace"/>
-        <color rgb="FF1155CC"/>
-        <sz val="11.0"/>
-        <u/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>「전주권 광역매립장 순환이용 정비사업」특정(신기술·특허) 공법선정위원회 ...</t>
     </r>
+  </si>
+  <si>
+    <t>수집일</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="&quot;맑은 고딕&quot;, monospace"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -892,11 +940,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -910,52 +964,61 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1145,23 +1208,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.71"/>
+    <col min="1" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="8.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="14.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,8 +1245,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1192,10 +1263,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>45622</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.6">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1209,10 +1283,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>45621</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.6">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1226,10 +1303,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>45622</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.6">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1243,10 +1323,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>45622</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.6">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1260,10 +1343,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>45621</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.6">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1277,10 +1363,13 @@
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>45621</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.6">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1294,10 +1383,13 @@
         <v>24</v>
       </c>
       <c r="E8" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>45621</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.6">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1311,10 +1403,13 @@
         <v>28</v>
       </c>
       <c r="E9" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>45622</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.6">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -1328,10 +1423,13 @@
         <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>45622</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.6">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -1345,10 +1443,13 @@
         <v>30</v>
       </c>
       <c r="E11" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>45622</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.6">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1362,10 +1463,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>45621</v>
+      </c>
+      <c r="F12" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.6">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1379,10 +1483,13 @@
         <v>32</v>
       </c>
       <c r="E13" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>45621</v>
+      </c>
+      <c r="F13" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.6">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1396,10 +1503,13 @@
         <v>33</v>
       </c>
       <c r="E14" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>45621</v>
+      </c>
+      <c r="F14" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.6">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1413,10 +1523,13 @@
         <v>34</v>
       </c>
       <c r="E15" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45621</v>
+      </c>
+      <c r="F15" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.6">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -1430,10 +1543,13 @@
         <v>38</v>
       </c>
       <c r="E16" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>45622</v>
+      </c>
+      <c r="F16" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.6">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1447,10 +1563,13 @@
         <v>39</v>
       </c>
       <c r="E17" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>45621</v>
+      </c>
+      <c r="F17" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.6">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1464,10 +1583,13 @@
         <v>43</v>
       </c>
       <c r="E18" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>45621</v>
+      </c>
+      <c r="F18" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.6">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1481,10 +1603,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>45622</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.6">
       <c r="A20" s="2" t="s">
         <v>44</v>
       </c>
@@ -1498,10 +1623,13 @@
         <v>47</v>
       </c>
       <c r="E20" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F20" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1515,10 +1643,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F21" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1532,10 +1663,13 @@
         <v>51</v>
       </c>
       <c r="E22" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F22" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1549,10 +1683,13 @@
         <v>55</v>
       </c>
       <c r="E23" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F23" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -1566,10 +1703,13 @@
         <v>56</v>
       </c>
       <c r="E24" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F24" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1583,10 +1723,13 @@
         <v>60</v>
       </c>
       <c r="E25" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F25" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>61</v>
       </c>
@@ -1600,10 +1743,13 @@
         <v>64</v>
       </c>
       <c r="E26" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F26" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
@@ -1617,10 +1763,13 @@
         <v>68</v>
       </c>
       <c r="E27" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F27" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -1634,10 +1783,13 @@
         <v>72</v>
       </c>
       <c r="E28" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F28" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
@@ -1651,10 +1803,13 @@
         <v>76</v>
       </c>
       <c r="E29" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F29" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -1668,10 +1823,13 @@
         <v>80</v>
       </c>
       <c r="E30" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F30" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -1685,10 +1843,13 @@
         <v>84</v>
       </c>
       <c r="E31" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F31" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -1702,10 +1863,13 @@
         <v>85</v>
       </c>
       <c r="E32" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F32" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>81</v>
       </c>
@@ -1719,10 +1883,13 @@
         <v>86</v>
       </c>
       <c r="E33" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F33" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -1736,10 +1903,13 @@
         <v>84</v>
       </c>
       <c r="E34" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F34" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>81</v>
       </c>
@@ -1753,10 +1923,13 @@
         <v>85</v>
       </c>
       <c r="E35" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F35" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1770,10 +1943,13 @@
         <v>86</v>
       </c>
       <c r="E36" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F36" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -1787,10 +1963,13 @@
         <v>84</v>
       </c>
       <c r="E37" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F37" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -1804,10 +1983,13 @@
         <v>85</v>
       </c>
       <c r="E38" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F38" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>81</v>
       </c>
@@ -1821,10 +2003,13 @@
         <v>86</v>
       </c>
       <c r="E39" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F39" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -1838,10 +2023,13 @@
         <v>84</v>
       </c>
       <c r="E40" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F40" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
@@ -1855,10 +2043,13 @@
         <v>85</v>
       </c>
       <c r="E41" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F41" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1872,10 +2063,13 @@
         <v>86</v>
       </c>
       <c r="E42" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F42" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
@@ -1889,10 +2083,13 @@
         <v>84</v>
       </c>
       <c r="E43" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F43" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -1906,10 +2103,13 @@
         <v>85</v>
       </c>
       <c r="E44" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F44" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>81</v>
       </c>
@@ -1923,10 +2123,13 @@
         <v>86</v>
       </c>
       <c r="E45" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F45" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>81</v>
       </c>
@@ -1940,10 +2143,13 @@
         <v>84</v>
       </c>
       <c r="E46" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F46" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>81</v>
       </c>
@@ -1957,10 +2163,13 @@
         <v>85</v>
       </c>
       <c r="E47" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F47" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>81</v>
       </c>
@@ -1974,10 +2183,13 @@
         <v>86</v>
       </c>
       <c r="E48" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F48" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>81</v>
       </c>
@@ -1991,10 +2203,13 @@
         <v>84</v>
       </c>
       <c r="E49" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F49" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
@@ -2008,10 +2223,13 @@
         <v>85</v>
       </c>
       <c r="E50" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F50" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2025,10 +2243,13 @@
         <v>86</v>
       </c>
       <c r="E51" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F51" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>87</v>
       </c>
@@ -2042,10 +2263,13 @@
         <v>90</v>
       </c>
       <c r="E52" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F52" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>87</v>
       </c>
@@ -2059,10 +2283,13 @@
         <v>92</v>
       </c>
       <c r="E53" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F53" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
@@ -2076,10 +2303,13 @@
         <v>96</v>
       </c>
       <c r="E54" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F54" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -2093,10 +2323,13 @@
         <v>100</v>
       </c>
       <c r="E55" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F55" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -2110,10 +2343,13 @@
         <v>104</v>
       </c>
       <c r="E56" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F56" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>105</v>
       </c>
@@ -2127,10 +2363,13 @@
         <v>108</v>
       </c>
       <c r="E57" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F57" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>109</v>
       </c>
@@ -2144,10 +2383,13 @@
         <v>112</v>
       </c>
       <c r="E58" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F58" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>113</v>
       </c>
@@ -2161,10 +2403,13 @@
         <v>116</v>
       </c>
       <c r="E59" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F59" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>117</v>
       </c>
@@ -2178,10 +2423,13 @@
         <v>120</v>
       </c>
       <c r="E60" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F60" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>117</v>
       </c>
@@ -2195,10 +2443,13 @@
         <v>122</v>
       </c>
       <c r="E61" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F61" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -2212,10 +2463,13 @@
         <v>124</v>
       </c>
       <c r="E62" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F62" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>125</v>
       </c>
@@ -2229,10 +2483,13 @@
         <v>120</v>
       </c>
       <c r="E63" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F63" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>125</v>
       </c>
@@ -2246,10 +2503,13 @@
         <v>122</v>
       </c>
       <c r="E64" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F64" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
@@ -2263,10 +2523,13 @@
         <v>128</v>
       </c>
       <c r="E65" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F65" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>129</v>
       </c>
@@ -2280,10 +2543,13 @@
         <v>132</v>
       </c>
       <c r="E66" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F66" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
@@ -2297,10 +2563,13 @@
         <v>133</v>
       </c>
       <c r="E67" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F67" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2314,10 +2583,13 @@
         <v>137</v>
       </c>
       <c r="E68" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F68" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -2331,10 +2603,13 @@
         <v>138</v>
       </c>
       <c r="E69" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F69" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>139</v>
       </c>
@@ -2348,10 +2623,13 @@
         <v>142</v>
       </c>
       <c r="E70" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F70" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
@@ -2365,10 +2643,13 @@
         <v>146</v>
       </c>
       <c r="E71" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F71" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>147</v>
       </c>
@@ -2382,10 +2663,13 @@
         <v>150</v>
       </c>
       <c r="E72" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F72" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>147</v>
       </c>
@@ -2399,10 +2683,13 @@
         <v>152</v>
       </c>
       <c r="E73" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F73" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
@@ -2416,10 +2703,13 @@
         <v>156</v>
       </c>
       <c r="E74" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F74" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>157</v>
       </c>
@@ -2433,10 +2723,13 @@
         <v>160</v>
       </c>
       <c r="E75" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F75" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>161</v>
       </c>
@@ -2450,10 +2743,13 @@
         <v>164</v>
       </c>
       <c r="E76" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F76" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>165</v>
       </c>
@@ -2467,10 +2763,13 @@
         <v>168</v>
       </c>
       <c r="E77" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F77" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>165</v>
       </c>
@@ -2484,10 +2783,13 @@
         <v>170</v>
       </c>
       <c r="E78" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F78" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>165</v>
       </c>
@@ -2501,10 +2803,13 @@
         <v>171</v>
       </c>
       <c r="E79" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F79" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>172</v>
       </c>
@@ -2518,10 +2823,13 @@
         <v>175</v>
       </c>
       <c r="E80" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F80" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>176</v>
       </c>
@@ -2535,10 +2843,13 @@
         <v>179</v>
       </c>
       <c r="E81" s="3">
-        <v>45620.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>45620</v>
+      </c>
+      <c r="F81" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>180</v>
       </c>
@@ -2552,10 +2863,13 @@
         <v>183</v>
       </c>
       <c r="E82" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F82" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>184</v>
       </c>
@@ -2569,10 +2883,13 @@
         <v>187</v>
       </c>
       <c r="E83" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F83" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
@@ -2586,10 +2903,13 @@
         <v>191</v>
       </c>
       <c r="E84" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F84" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>192</v>
       </c>
@@ -2603,10 +2923,13 @@
         <v>195</v>
       </c>
       <c r="E85" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F85" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>196</v>
       </c>
@@ -2620,10 +2943,13 @@
         <v>199</v>
       </c>
       <c r="E86" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F86" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>200</v>
       </c>
@@ -2637,10 +2963,13 @@
         <v>203</v>
       </c>
       <c r="E87" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F87" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>204</v>
       </c>
@@ -2654,10 +2983,13 @@
         <v>207</v>
       </c>
       <c r="E88" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F88" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>208</v>
       </c>
@@ -2671,10 +3003,13 @@
         <v>211</v>
       </c>
       <c r="E89" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F89" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>208</v>
       </c>
@@ -2688,10 +3023,13 @@
         <v>212</v>
       </c>
       <c r="E90" s="3">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F90" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>213</v>
       </c>
@@ -2705,10 +3043,13 @@
         <v>216</v>
       </c>
       <c r="E91" s="3">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F91" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>217</v>
       </c>
@@ -2722,10 +3063,13 @@
         <v>220</v>
       </c>
       <c r="E92" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F92" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>217</v>
       </c>
@@ -2739,10 +3083,13 @@
         <v>221</v>
       </c>
       <c r="E93" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F93" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>217</v>
       </c>
@@ -2756,10 +3103,13 @@
         <v>222</v>
       </c>
       <c r="E94" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F94" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>113</v>
       </c>
@@ -2773,10 +3123,13 @@
         <v>116</v>
       </c>
       <c r="E95" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F95" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>113</v>
       </c>
@@ -2790,10 +3143,13 @@
         <v>225</v>
       </c>
       <c r="E96" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F96" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>113</v>
       </c>
@@ -2807,10 +3163,13 @@
         <v>227</v>
       </c>
       <c r="E97" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F97" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>228</v>
       </c>
@@ -2824,10 +3183,13 @@
         <v>231</v>
       </c>
       <c r="E98" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F98" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>232</v>
       </c>
@@ -2841,10 +3203,13 @@
         <v>235</v>
       </c>
       <c r="E99" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F99" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>232</v>
       </c>
@@ -2858,10 +3223,13 @@
         <v>236</v>
       </c>
       <c r="E100" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F100" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>232</v>
       </c>
@@ -2875,10 +3243,13 @@
         <v>237</v>
       </c>
       <c r="E101" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F101" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>238</v>
       </c>
@@ -2892,10 +3263,13 @@
         <v>241</v>
       </c>
       <c r="E102" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F102" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="4" t="s">
         <v>242</v>
       </c>
@@ -2909,10 +3283,13 @@
         <v>245</v>
       </c>
       <c r="E103" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F103" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="4" t="s">
         <v>242</v>
       </c>
@@ -2926,10 +3303,13 @@
         <v>247</v>
       </c>
       <c r="E104" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F104" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="4" t="s">
         <v>248</v>
       </c>
@@ -2943,10 +3323,13 @@
         <v>251</v>
       </c>
       <c r="E105" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F105" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="4" t="s">
         <v>248</v>
       </c>
@@ -2960,10 +3343,13 @@
         <v>252</v>
       </c>
       <c r="E106" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F106" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="4" t="s">
         <v>248</v>
       </c>
@@ -2977,10 +3363,13 @@
         <v>253</v>
       </c>
       <c r="E107" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F107" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="4" t="s">
         <v>184</v>
       </c>
@@ -2994,10 +3383,13 @@
         <v>187</v>
       </c>
       <c r="E108" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F108" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="4" t="s">
         <v>184</v>
       </c>
@@ -3011,10 +3403,13 @@
         <v>254</v>
       </c>
       <c r="E109" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F109" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="4" t="s">
         <v>255</v>
       </c>
@@ -3028,10 +3423,13 @@
         <v>258</v>
       </c>
       <c r="E110" s="6">
-        <v>45621.0</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
+        <v>45621</v>
+      </c>
+      <c r="F110" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>259</v>
       </c>
@@ -3045,10 +3443,13 @@
         <v>262</v>
       </c>
       <c r="E111" s="6">
-        <v>45622.0</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
+        <v>45622</v>
+      </c>
+      <c r="F111" s="11">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="7" t="s">
         <v>263</v>
       </c>
@@ -3062,7 +3463,10 @@
         <v>266</v>
       </c>
       <c r="E112" s="6">
-        <v>45622.0</v>
+        <v>45622</v>
+      </c>
+      <c r="F112" s="11">
+        <v>45622</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1"/>
@@ -3954,33 +4358,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C92"/>
-    <hyperlink r:id="rId2" ref="C93"/>
-    <hyperlink r:id="rId3" ref="C94"/>
-    <hyperlink r:id="rId4" ref="C95"/>
-    <hyperlink r:id="rId5" ref="C96"/>
-    <hyperlink r:id="rId6" ref="C97"/>
-    <hyperlink r:id="rId7" ref="C98"/>
-    <hyperlink r:id="rId8" ref="C99"/>
-    <hyperlink r:id="rId9" ref="C100"/>
-    <hyperlink r:id="rId10" ref="C101"/>
-    <hyperlink r:id="rId11" ref="C102"/>
-    <hyperlink r:id="rId12" ref="C103"/>
-    <hyperlink r:id="rId13" ref="C104"/>
-    <hyperlink r:id="rId14" ref="C105"/>
-    <hyperlink r:id="rId15" ref="C106"/>
-    <hyperlink r:id="rId16" ref="C107"/>
-    <hyperlink r:id="rId17" ref="C108"/>
-    <hyperlink r:id="rId18" ref="C109"/>
-    <hyperlink r:id="rId19" ref="C110"/>
-    <hyperlink r:id="rId20" ref="C111"/>
-    <hyperlink r:id="rId21" ref="C112"/>
-    <hyperlink r:id="rId22" ref="D112"/>
+    <hyperlink ref="C92" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C93" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C94" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C95" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C96" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C97" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C98" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C99" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C100" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C101" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C102" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C103" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C104" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C105" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C106" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C107" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C108" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C109" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C110" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C111" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C112" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D112" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId23"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId23"/>
 </worksheet>
 </file>